--- a/data/outputs/management/54.xlsx
+++ b/data/outputs/management/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ79"/>
+  <dimension ref="A1:BR79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4435824</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1331,6 +1342,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1754,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1942,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2147,6 +2162,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2348,6 +2364,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2557,6 +2574,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2784,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2967,6 +2986,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4357311</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3176,6 +3200,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>3853554</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3373,6 +3402,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4019493</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3590,6 +3624,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4116192</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3799,6 +3838,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4000,6 +4040,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4221,6 +4262,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4244498</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4476,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4639,6 +4686,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4828,6 +4876,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5033,6 +5082,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5246,6 +5296,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4095385</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5447,6 +5502,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5652,6 +5708,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3969953</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5857,6 +5918,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4015160</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5943,7 +6009,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>MONTES, FRANCISCO JAVIER LLORENS/0000-0002-8485-7065; </t>
+          <t>MONTES, FRANCISCO JAVIER LLORENS/0000-0002-8485-7065;</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6074,6 +6140,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>3992212</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6279,6 +6350,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4010277</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6480,6 +6556,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>3996370</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6681,6 +6762,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6874,6 +6956,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7063,6 +7146,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7272,6 +7356,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7489,6 +7574,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>3903619</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7706,6 +7796,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4030328</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7915,6 +8010,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8128,6 +8224,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4010259</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8337,6 +8438,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8550,6 +8652,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8755,6 +8858,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8952,6 +9056,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9153,6 +9258,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3737714</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9366,6 +9476,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9583,6 +9694,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4512129</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9784,6 +9900,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9985,6 +10102,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10071,7 +10189,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>El-Gayar, Omar/0000-0001-8657-8732; </t>
+          <t>El-Gayar, Omar/0000-0001-8657-8732;</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr"/>
@@ -10194,6 +10312,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3760533</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10399,6 +10522,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>3769235</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10604,6 +10732,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10813,6 +10942,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11026,6 +11156,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11235,6 +11366,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11424,6 +11556,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11633,6 +11766,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11822,6 +11956,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12031,6 +12166,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>10807791</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12232,6 +12372,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12433,6 +12574,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12646,6 +12788,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3718829</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12847,6 +12994,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13052,6 +13200,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>2952851</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13261,6 +13414,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13478,6 +13632,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13687,6 +13842,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13888,6 +14044,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14093,6 +14250,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14302,6 +14460,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>6045628</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14511,6 +14674,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>2811452</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14712,6 +14880,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14913,6 +15082,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15122,6 +15292,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>2844556</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15327,6 +15502,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>2874310</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15528,6 +15708,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>3092724</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15737,6 +15922,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15942,6 +16128,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16147,6 +16334,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16352,6 +16540,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16561,6 +16750,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16750,6 +16940,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
